--- a/06-03-2023/data/output/xlsx/sample_0/3_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/3_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,202 +352,262 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__2,num_of_decimals__20,num_of_decimals__21,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_equals__15,num_of_equals__16,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
   </si>
 </sst>
 </file>
@@ -887,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,19 +1002,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
+        <v>974</v>
+      </c>
+      <c r="D2">
+        <v>0.2110261450450125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.04855371900826446</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="G2">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H2">
-        <v>-0.001546481392537144</v>
+        <v>0.0005287782958113413</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -947,22 +1028,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
-      </c>
-      <c r="D3">
-        <v>0.09511574924529125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
+        <v>847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>0.05149700598802395</v>
+        <v>0.06257378984651712</v>
       </c>
       <c r="G3">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H3">
-        <v>0.001396805587222348</v>
+        <v>-0.0005524626584928888</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -973,22 +1051,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>-0.01180278482632573</v>
+        <v>0.08853582326079876</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F4">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H4">
-        <v>0.1317179814173802</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -999,22 +1077,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>-0.04218645289645769</v>
+        <v>0.2624379944177613</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F5">
-        <v>0.1111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H5">
-        <v>0.0610109107103095</v>
+        <v>0.23687374749499</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1028,19 +1106,19 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>-0.04218645289645769</v>
+        <v>0.2048717223127571</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F6">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G6">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H6">
-        <v>0.0610109107103095</v>
+        <v>0.1590959697172122</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1054,19 +1132,19 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-0.002882988426862314</v>
+        <v>0.3551639359170221</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F7">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H7">
-        <v>0.1165664662658651</v>
+        <v>0.2702070808283233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1080,19 +1158,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.02443691772777382</v>
+        <v>0.5204103591632478</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H8">
-        <v>0.1498997995991984</v>
+        <v>0.33687374749499</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1103,22 +1181,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0.04639848002707919</v>
+        <v>0.5841591572722228</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H9">
-        <v>0.1998997995991984</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1129,19 +1207,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H10">
-        <v>-0.0501002004008016</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1152,19 +1230,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.2720486844920167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="G11">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H11">
-        <v>-0.0501002004008016</v>
+        <v>0.03822509884634134</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1175,22 +1256,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.1128019484569364</v>
+        <v>0.2311553740974038</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>0.07025761124121779</v>
+        <v>0.1225806451612903</v>
       </c>
       <c r="G12">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H12">
-        <v>0.02015741084041619</v>
+        <v>0.0594543926562803</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1201,22 +1282,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>0.1392739120903095</v>
+        <v>0.2476999187735144</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F13">
-        <v>0.08813559322033898</v>
+        <v>0.1534653465346535</v>
       </c>
       <c r="G13">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H13">
-        <v>0.03803539281953738</v>
+        <v>0.09033909402964345</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1227,22 +1308,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>0.1527133861821912</v>
+        <v>0.2736802101563103</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F14">
-        <v>0.1085714285714286</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G14">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H14">
-        <v>0.05847122817062696</v>
+        <v>0.1210842738107794</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1253,22 +1334,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>0.160842431585411</v>
+        <v>0.1438002489511427</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F15">
-        <v>0.1230769230769231</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="G15">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H15">
-        <v>0.07297672267612149</v>
+        <v>0.1205472168827451</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1279,22 +1360,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0.1935351783149528</v>
+        <v>0.2032260564216062</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F16">
-        <v>0.141025641025641</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="G16">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H16">
-        <v>0.09092544062483943</v>
+        <v>0.1427561004361664</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1305,22 +1386,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>0.1882153386341049</v>
+        <v>0.273118751361046</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F17">
-        <v>0.1730769230769231</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="G17">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H17">
-        <v>0.1229767226761215</v>
+        <v>0.1926877009833621</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1334,19 +1415,19 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.2307286654137356</v>
+        <v>0.108666768549857</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>0.2307692307692308</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="G18">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H18">
-        <v>0.1806690303684292</v>
+        <v>0.2061045167257592</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1357,22 +1438,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19">
-        <v>0.2508341757035326</v>
+        <v>0.1546943292386332</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>0.2941176470588235</v>
+        <v>0.07492354740061162</v>
       </c>
       <c r="G19">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H19">
-        <v>0.2440174466580219</v>
+        <v>0.01179729489560161</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1383,22 +1464,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>0.007803088552821105</v>
+        <v>0.1747847759481014</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>0.06615384615384616</v>
+        <v>0.08538899430740038</v>
       </c>
       <c r="G20">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H20">
-        <v>0.01605364575304456</v>
+        <v>0.02226274180239037</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1409,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>0.0008452806648163264</v>
+        <v>0.2641049622680666</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F21">
-        <v>0.06513409961685823</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="G21">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H21">
-        <v>0.01503389921605663</v>
+        <v>0.1932840039052464</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1435,22 +1516,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.06538363563645047</v>
+        <v>0.1675238898947546</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F22">
-        <v>0.1111111111111111</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="G22">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H22">
-        <v>0.0610109107103095</v>
+        <v>0.1542650518428161</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1461,22 +1542,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>0.04427536350535084</v>
+        <v>0.2147242500991123</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F23">
-        <v>0.1111111111111111</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G23">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H23">
-        <v>0.0610109107103095</v>
+        <v>0.2309913945538135</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1487,22 +1568,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>0.06615869843751614</v>
+        <v>0.002158623264778335</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F24">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G24">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H24">
-        <v>0.0748997995991984</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1513,22 +1594,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0.09583198555471853</v>
+        <v>0.1209711621844688</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>0.1666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H25">
-        <v>0.1165664662658651</v>
+        <v>0.23687374749499</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1539,22 +1620,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.1304136234091549</v>
+        <v>0.1209711621844688</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F26">
-        <v>0.2222222222222222</v>
+        <v>0.3</v>
       </c>
       <c r="G26">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H26">
-        <v>0.1721220218214206</v>
+        <v>0.23687374749499</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1568,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>0.1476964607931944</v>
+        <v>0.09726847794601073</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>0.25</v>
       </c>
       <c r="G27">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H27">
-        <v>0.1998997995991984</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1591,22 +1672,22 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>0.1648672697375557</v>
+        <v>0.1970549294395099</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G28">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H28">
-        <v>0.1998997995991984</v>
+        <v>0.33687374749499</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1617,22 +1698,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0.2065355465608901</v>
+        <v>0.007747629696922599</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G29">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H29">
-        <v>0.2832331329325317</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1646,19 +1727,19 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>0.2065355465608901</v>
+        <v>0.07080697162623072</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H30">
-        <v>0.2832331329325317</v>
+        <v>0.2702070808283233</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1669,19 +1750,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>0.2119922219570392</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.09879518072289156</v>
       </c>
       <c r="G31">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H31">
-        <v>-0.0501002004008016</v>
+        <v>0.03566892821788155</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1692,22 +1776,22 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>-0.002770614877184548</v>
+        <v>0.07080697162623072</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F32">
-        <v>0.0583941605839416</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H32">
-        <v>0.008293960183139999</v>
+        <v>0.2702070808283233</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1718,19 +1802,22 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.2132195567461466</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H33">
-        <v>-0.0501002004008016</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1744,16 +1831,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H34">
-        <v>-0.0501002004008016</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1764,22 +1851,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.01460981082810492</v>
-      </c>
-      <c r="E35" t="s">
-        <v>133</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.066006600660066</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H35">
-        <v>0.0159064002592644</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1790,22 +1874,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.03413792571615509</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.0821256038647343</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H36">
-        <v>0.0320254034639327</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1816,22 +1897,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
-      </c>
-      <c r="D37">
-        <v>0.05901455958183172</v>
-      </c>
-      <c r="E37" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.09202453987730061</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H37">
-        <v>0.041924339476499</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1842,22 +1920,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
-      </c>
-      <c r="D38">
-        <v>0.1170260140274762</v>
-      </c>
-      <c r="E38" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.1071428571428571</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H38">
-        <v>0.05704265674205553</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1868,22 +1943,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>0.1476632951777977</v>
-      </c>
-      <c r="E39" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.1123595505617977</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H39">
-        <v>0.06225935016099614</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1894,22 +1966,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>0.1713770724386434</v>
-      </c>
-      <c r="E40" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.1355932203389831</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H40">
-        <v>0.08549301993818145</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1920,22 +1989,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>0.08585438200329211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H41">
-        <v>0.08323313293253173</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1946,19 +2012,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
+        <v>296</v>
+      </c>
+      <c r="D42">
+        <v>0.2227458063180701</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
       </c>
       <c r="F42">
-        <v>0.04919678714859438</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="G42">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H42">
-        <v>-0.0009034132522072261</v>
+        <v>0.05173861235985486</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1969,19 +2038,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
+        <v>215</v>
+      </c>
+      <c r="D43">
+        <v>0.1932350047372659</v>
+      </c>
+      <c r="E43" t="s">
+        <v>143</v>
       </c>
       <c r="F43">
-        <v>0.04944500504540868</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="G43">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H43">
-        <v>-0.0006551953553929277</v>
+        <v>0.07175746842522256</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1992,22 +2064,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44">
-        <v>-0.07063517547165778</v>
+        <v>0.2350418508741509</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F44">
-        <v>0.08333333333333333</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="G44">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H44">
-        <v>0.03323313293253172</v>
+        <v>0.09350025351908638</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2018,19 +2090,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>0.2654666908683651</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="G45">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H45">
-        <v>-0.0501002004008016</v>
+        <v>0.1157355361128762</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2041,19 +2116,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>0.2817115143079776</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="G46">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H46">
-        <v>-0.0501002004008016</v>
+        <v>0.1430593145052992</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2064,22 +2142,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
+        <v>74</v>
       </c>
       <c r="D47">
-        <v>0.1199004505838952</v>
+        <v>0.3206764337660651</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F47">
-        <v>0.06317411402157165</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="G47">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H47">
-        <v>0.01307391362077005</v>
+        <v>0.1666034772247197</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2090,22 +2168,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>0.1034130840254746</v>
+        <v>0.2217051010498629</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F48">
-        <v>0.06947368421052631</v>
+        <v>0.25</v>
       </c>
       <c r="G48">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H48">
-        <v>0.01937348380972471</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2116,22 +2194,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
+        <v>996</v>
       </c>
       <c r="D49">
-        <v>0.06428385802241351</v>
+        <v>0.2566562291023457</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F49">
-        <v>0.07166123778501629</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="G49">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H49">
-        <v>0.02156103738421469</v>
+        <v>0.0001267595431827528</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2142,22 +2220,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
+        <v>988</v>
       </c>
       <c r="D50">
-        <v>0.08129624419515386</v>
+        <v>0.2570386782367826</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F50">
-        <v>0.07725321888412018</v>
+        <v>0.06376518218623482</v>
       </c>
       <c r="G50">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H50">
-        <v>0.02715301848331857</v>
+        <v>0.0006389296812248091</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2168,22 +2246,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>-0.1557828378988978</v>
+        <v>0.1232511646187662</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F51">
-        <v>0.08441558441558442</v>
+        <v>0.2</v>
       </c>
       <c r="G51">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H51">
-        <v>0.03431538401478281</v>
+        <v>0.13687374749499</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2194,22 +2272,22 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>-0.1286386350335064</v>
+        <v>0.2602224641483026</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F52">
-        <v>0.07920792079207921</v>
+        <v>0.375</v>
       </c>
       <c r="G52">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H52">
-        <v>0.0291077203912776</v>
+        <v>0.31187374749499</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2220,22 +2298,22 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>-0.1337214395515241</v>
+        <v>0.4646200278067962</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F53">
-        <v>0.06451612903225806</v>
+        <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H53">
-        <v>0.01441592863145646</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2246,22 +2324,22 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>-0.1079323865343456</v>
+        <v>0.5819434458747237</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F54">
-        <v>0.06666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G54">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H54">
-        <v>0.01656646626586506</v>
+        <v>0.6035404141616566</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2272,22 +2350,22 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0.102137285109618</v>
+        <v>0.8367362055785864</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F55">
-        <v>0.09722222222222222</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H55">
-        <v>0.04712202182142062</v>
+        <v>0.93687374749499</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2298,22 +2376,22 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.1044480355889112</v>
+        <v>0.8367362055785864</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F56">
-        <v>0.0935672514619883</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H56">
-        <v>0.04346705106118669</v>
+        <v>0.93687374749499</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2324,22 +2402,22 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>-0.0764167932811861</v>
+        <v>0.8367362055785864</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F57">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H57">
-        <v>0.0610109107103095</v>
+        <v>0.93687374749499</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2350,22 +2428,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58">
-        <v>-0.06776425584455355</v>
+        <v>0.2374944368453481</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F58">
-        <v>0.125</v>
+        <v>0.08647798742138364</v>
       </c>
       <c r="G58">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H58">
-        <v>0.0748997995991984</v>
+        <v>0.02335173491637363</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2376,19 +2454,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>0.2471416811316907</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.09670781893004116</v>
       </c>
       <c r="G59">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H59">
-        <v>-0.0501002004008016</v>
+        <v>0.03358156642503114</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2399,19 +2480,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>0.2391532018853493</v>
+      </c>
+      <c r="E60" t="s">
+        <v>160</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.11875</v>
       </c>
       <c r="G60">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H60">
-        <v>-0.0501002004008016</v>
+        <v>0.05562374749498998</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2422,19 +2506,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>0.2305737003478984</v>
+      </c>
+      <c r="E61" t="s">
+        <v>161</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.1228813559322034</v>
       </c>
       <c r="G61">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H61">
-        <v>-0.0501002004008016</v>
+        <v>0.05975510342719338</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2445,19 +2532,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>0.08380798079878408</v>
+      </c>
+      <c r="E62" t="s">
+        <v>162</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="G62">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H62">
-        <v>-0.0501002004008016</v>
+        <v>0.06262225048900195</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2471,19 +2561,19 @@
         <v>110</v>
       </c>
       <c r="D63">
-        <v>0.1293934913012947</v>
+        <v>0.02328326817517986</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F63">
-        <v>0.08181818181818182</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="G63">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H63">
-        <v>0.03171798141738021</v>
+        <v>0.06414647476771725</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2494,22 +2584,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>0.05570000407902696</v>
+        <v>0.07089743572195324</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F64">
-        <v>0.07526881720430108</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="G64">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H64">
-        <v>0.02516861680349947</v>
+        <v>0.07533528595652846</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2520,22 +2610,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>0.1054895765330557</v>
+        <v>0.1205856398868047</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F65">
-        <v>0.1014492753623188</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G65">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H65">
-        <v>0.05134907496151724</v>
+        <v>0.1133443357302841</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2546,22 +2636,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>0.03724211131963798</v>
+        <v>0.1348627386991335</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F66">
-        <v>0.05660377358490566</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="G66">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H66">
-        <v>0.006503573184104057</v>
+        <v>0.06576263638387887</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2572,22 +2662,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67">
-        <v>0.0680298093996926</v>
+        <v>0.1229125141837661</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F67">
-        <v>0.09375</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="G67">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H67">
-        <v>0.0436497995991984</v>
+        <v>0.06046925311296751</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2598,22 +2688,22 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>0.06107077302876186</v>
+        <v>0.06603957706092117</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F68">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="G68">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H68">
-        <v>0.0298997995991984</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2624,22 +2714,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>0.08410951711099435</v>
+        <v>0.02471032445304447</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F69">
-        <v>0.1176470588235294</v>
+        <v>0.2</v>
       </c>
       <c r="G69">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H69">
-        <v>0.06754685842272781</v>
+        <v>0.13687374749499</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2650,22 +2740,22 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>-0.09023065516247897</v>
+        <v>0.02471032445304447</v>
       </c>
       <c r="E70" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F70">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H70">
-        <v>0.04080889050828931</v>
+        <v>0.13687374749499</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2676,19 +2766,22 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>0.04928751996367899</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
       </c>
       <c r="F71">
-        <v>0.0501002004008016</v>
+        <v>0.25</v>
       </c>
       <c r="G71">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.18687374749499</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2699,22 +2792,22 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>0.09643909877046947</v>
+        <v>0.2519632237946366</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F72">
-        <v>0.05367231638418079</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H72">
-        <v>0.003572115983379184</v>
+        <v>0.2702070808283233</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2725,19 +2818,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H73">
-        <v>-0.0501002004008016</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2748,22 +2841,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>-0.01379757699742355</v>
-      </c>
-      <c r="E74" t="s">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.06611570247933884</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H74">
-        <v>0.01601550207853724</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2774,19 +2864,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="D75">
+        <v>0.0967102568184855</v>
+      </c>
+      <c r="E75" t="s">
+        <v>173</v>
       </c>
       <c r="F75">
-        <v>0.01851851851851852</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="G75">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H75">
-        <v>-0.03158168188228309</v>
+        <v>0.04991722575585955</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2797,19 +2890,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
-      </c>
-      <c r="D76" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="D76">
+        <v>0.1254333532006945</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
       </c>
       <c r="F76">
-        <v>0.03225806451612903</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="G76">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H76">
-        <v>-0.01784213588467257</v>
+        <v>0.0633105291041854</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2820,19 +2916,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>0.2236008172368127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>175</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G77">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H77">
-        <v>-0.0501002004008016</v>
+        <v>0.07973089035213284</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2843,19 +2942,22 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <v>0.2262986053186294</v>
+      </c>
+      <c r="E78" t="s">
+        <v>176</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="G78">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H78">
-        <v>-0.0501002004008016</v>
+        <v>0.09242930305054554</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2866,19 +2968,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>105</v>
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>0.2349766500714726</v>
+      </c>
+      <c r="E79" t="s">
+        <v>177</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="G79">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H79">
-        <v>-0.0501002004008016</v>
+        <v>0.1154451760664186</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2889,19 +2994,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>0.2438175141530679</v>
+      </c>
+      <c r="E80" t="s">
+        <v>178</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G80">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H80">
-        <v>-0.0501002004008016</v>
+        <v>0.1273499379711804</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2912,19 +3020,22 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>-0.06480188991149616</v>
+      </c>
+      <c r="E81" t="s">
+        <v>179</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G81">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H81">
-        <v>-0.0501002004008016</v>
+        <v>0.06187374749498999</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2935,22 +3046,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>0.1207398953397716</v>
+        <v>-0.004665310666316612</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F82">
-        <v>0.07221006564551423</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G82">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H82">
-        <v>0.02210986524471262</v>
+        <v>0.1035404141616566</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2961,22 +3072,19 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83">
-        <v>0.04886713250561906</v>
-      </c>
-      <c r="E83" t="s">
-        <v>164</v>
+        <v>997</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
       </c>
       <c r="F83">
-        <v>0.1111111111111111</v>
+        <v>0.06218655967903711</v>
       </c>
       <c r="G83">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H83">
-        <v>0.0610109107103095</v>
+        <v>-0.0009396928259729001</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2987,19 +3095,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G84">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H84">
-        <v>-0.0501002004008016</v>
+        <v>-0.0006262525050100137</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3010,19 +3118,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>0.1815809418654346</v>
+      </c>
+      <c r="E85" t="s">
+        <v>181</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="G85">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H85">
-        <v>-0.0501002004008016</v>
+        <v>0.07132752900759502</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3033,19 +3144,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>0.1380364038107955</v>
+      </c>
+      <c r="E86" t="s">
+        <v>182</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G86">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H86">
-        <v>-0.0501002004008016</v>
+        <v>0.09476848433709524</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3056,19 +3170,22 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>105</v>
+        <v>26</v>
+      </c>
+      <c r="D87">
+        <v>0.08674140117544588</v>
+      </c>
+      <c r="E87" t="s">
+        <v>183</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G87">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H87">
-        <v>-0.0501002004008016</v>
+        <v>0.05225836287960538</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3079,19 +3196,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="D88">
+        <v>0.09621698689242909</v>
+      </c>
+      <c r="E88" t="s">
+        <v>184</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G88">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H88">
-        <v>-0.0501002004008016</v>
+        <v>0.04798485860610109</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3102,19 +3222,22 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>-0.1000971878772824</v>
+      </c>
+      <c r="E89" t="s">
+        <v>185</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G89">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H89">
-        <v>-0.0501002004008016</v>
+        <v>0.0277828384040809</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3125,19 +3248,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H90">
-        <v>-0.0501002004008016</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3148,19 +3271,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H91">
-        <v>-0.0501002004008016</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3171,22 +3294,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.07545377950418672</v>
-      </c>
-      <c r="E92" t="s">
-        <v>165</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.1063829787234043</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H92">
-        <v>0.05628277832260265</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3197,22 +3317,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.1318926041667459</v>
+        <v>0.1041958250908302</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F93">
-        <v>0.1636363636363636</v>
+        <v>0.07939914163090128</v>
       </c>
       <c r="G93">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H93">
-        <v>0.113536163235562</v>
+        <v>0.01627288912589127</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3223,22 +3343,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>0.01808428137165477</v>
+        <v>0.08437802482529004</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="F94">
-        <v>0.1</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="G94">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H94">
-        <v>0.0498997995991984</v>
+        <v>0.05100418227759868</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3249,22 +3369,22 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>0.06823363439613432</v>
+        <v>0.3589067700717306</v>
       </c>
       <c r="E95" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F95">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="G95">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H95">
-        <v>0.09275694245634125</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3275,22 +3395,22 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>0.09250490665070497</v>
+        <v>0.2932719228483605</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="F96">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="G96">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H96">
-        <v>0.09275694245634125</v>
+        <v>0.43687374749499</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3301,22 +3421,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>0.1420989466307804</v>
-      </c>
-      <c r="E97" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
       </c>
       <c r="F97">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H97">
-        <v>0.1498997995991984</v>
+        <v>-0.06312625250501001</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3327,22 +3444,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98">
-        <v>0.2875524221291065</v>
+        <v>0.1612532243361897</v>
       </c>
       <c r="E98" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G98">
-        <v>0.0501002004008016</v>
+        <v>0.06312625250501001</v>
       </c>
       <c r="H98">
-        <v>0.4498997995991984</v>
+        <v>0.1133443357302841</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3353,19 +3470,178 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99">
+        <v>0.2433545549905433</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="G99">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H99">
+        <v>0.2257626363838788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.0501002004008016</v>
-      </c>
-      <c r="H99">
-        <v>-0.0501002004008016</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>0.190259106338888</v>
+      </c>
+      <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="G100">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H100">
+        <v>0.2412215735819465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101">
+        <v>0.2163468258218777</v>
+      </c>
+      <c r="E101" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="G101">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H101">
+        <v>0.2898149239655782</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>0.235262837405469</v>
+      </c>
+      <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="G102">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H102">
+        <v>0.3005101111313536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>0.3498990214689189</v>
+      </c>
+      <c r="E103" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103">
+        <v>0.375</v>
+      </c>
+      <c r="G103">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H103">
+        <v>0.31187374749499</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>0.4714446821135608</v>
+      </c>
+      <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104">
+        <v>0.5</v>
+      </c>
+      <c r="G104">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H104">
+        <v>0.43687374749499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>0.1990671515300656</v>
+      </c>
+      <c r="E105" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105">
+        <v>0.4</v>
+      </c>
+      <c r="G105">
+        <v>0.06312625250501001</v>
+      </c>
+      <c r="H105">
+        <v>0.33687374749499</v>
       </c>
     </row>
   </sheetData>
